--- a/src/main/resources/excel/demo.xlsx
+++ b/src/main/resources/excel/demo.xlsx
@@ -55,7 +55,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -74,7 +74,7 @@
     <row r="1" customHeight="true" ht="50.0">
       <c r="A1" t="inlineStr">
         <is>
-          <t>kaskdjfhgkjhg</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B1"/>
@@ -968,90 +968,6 @@
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>book1</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>asdsad</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>asdsadsa</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>123213</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>DYSTOPIAN</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>12312</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>12312</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>AVAILABLE</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>book1</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>asdsad</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>asdsadsa</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>123213</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>DYSTOPIAN</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>12312</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>12312</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>AVAILABLE</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
